--- a/KDTree/results/result_mpi_polus.xlsx
+++ b/KDTree/results/result_mpi_polus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Desktop/SpecSem/SpecSem/KDTree/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6420F62B-021C-9A40-8C3D-A8B3B80645A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DD1A7A9B-BE30-B242-9C6C-46CD70D7CA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="4" r:id="rId1"/>
@@ -4099,9 +4099,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>10000</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>d</a:t>
             </a:r>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4527,9 +4528,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>10000</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>f</a:t>
             </a:r>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -10855,62 +10857,6 @@
     <dataField name="Среднее по полю SearchTime" fld="1" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Среднее по полю TotalTime" fld="4" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -14102,7 +14048,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
